--- a/CPC_薬剤_検査.xlsx
+++ b/CPC_薬剤_検査.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="2220" windowWidth="25600" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>ABPC/SBT</t>
   </si>
@@ -309,6 +309,44 @@
   </si>
   <si>
     <t>CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾌﾟﾛﾃｲﾝC（活性）</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>プロテインＳ</t>
+  </si>
+  <si>
+    <t>ループスＡＣ</t>
+  </si>
+  <si>
+    <t>抗核抗体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40ﾐﾏﾝ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          8&gt;</t>
+  </si>
+  <si>
+    <t>抗ｶﾙｼﾞｵﾘﾋﾟﾝB2ｸﾞﾘｺP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.2&gt;</t>
+  </si>
+  <si>
+    <t>抗ｶﾙｼﾞｵﾘﾋﾟﾝ抗体IgG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VCM内服</t>
+    <rPh sb="3" eb="5">
+      <t>ナイフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,7 +420,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,21 +434,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -418,6 +470,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -746,16 +801,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -934,7 +990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,7 +1001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +1011,11 @@
       <c r="C18" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" s="6">
+        <v>42952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,8 +1025,11 @@
       <c r="C19" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" s="6">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1039,12 @@
       <c r="C20" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <f>G18-G19</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1054,11 @@
       <c r="C21" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" s="6">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,8 +1068,11 @@
       <c r="C22" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" s="6">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1082,12 @@
       <c r="C23" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23">
+        <f>G21-G22</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,8 +1097,11 @@
       <c r="C24" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" s="7">
+        <v>38281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1112,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,8 +1122,11 @@
       <c r="C26" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" s="6">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1136,12 @@
       <c r="C27" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27">
+        <f>G26-G22</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,8 +1151,17 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>73</v>
+      </c>
+      <c r="H28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1172,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1183,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1110,19 +1205,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>70</v>
       </c>
@@ -1133,7 +1228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>70</v>
       </c>
@@ -1149,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>82</v>
       </c>
@@ -1168,7 +1263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>88</v>
       </c>
@@ -1187,15 +1282,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>95</v>
       </c>
@@ -1205,24 +1303,39 @@
       <c r="C43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="5">
+        <v>46</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>98</v>
       </c>
@@ -1232,16 +1345,32 @@
       <c r="C46" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="5">
+        <v>54</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>109</v>
       </c>
@@ -1251,24 +1380,33 @@
       <c r="C48" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="H48" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="H49" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="B50" t="s">
         <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="H50" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>109</v>
       </c>
@@ -1279,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>117</v>
       </c>
@@ -1295,7 +1433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -1303,15 +1441,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:8">
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="H55" s="6">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>123</v>
       </c>
@@ -1321,16 +1462,23 @@
       <c r="C56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="H56" s="6">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="H57">
+        <f>H55-H56</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="B58" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>133</v>
       </c>
@@ -1354,7 +1502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:8">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>159</v>
       </c>
@@ -1381,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:8">
       <c r="B64" t="s">
         <v>22</v>
       </c>
